--- a/ActionForce/ActionForce.Office/Document/Salary/LocationParameter.xlsx
+++ b/ActionForce/ActionForce.Office/Document/Salary/LocationParameter.xlsx
@@ -7,7 +7,6 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Kiralar" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Lokasyonlar" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -20,10 +19,19 @@
     <x:t>LocationID</x:t>
   </x:si>
   <x:si>
-    <x:t>Baslangıç</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bitiş</x:t>
+    <x:t>Kodu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Turu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baslangic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bitis</x:t>
   </x:si>
   <x:si>
     <x:t>Tutar</x:t>
@@ -32,19 +40,10 @@
     <x:t>Birim</x:t>
   </x:si>
   <x:si>
+    <x:t>5002 Istanbul Merkez Ofıs  İstanbul</x:t>
+  </x:si>
+  <x:si>
     <x:t>TRL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kodu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adı</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Türü</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5002 Istanbul Merkez Ofıs  İstanbul</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">5020 Ankamall  Trampoline 1 </x:t>
@@ -621,13 +620,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E11"/>
+  <x:dimension ref="A1:H66"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -643,182 +642,17 @@
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="0" t="n">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="B2" s="1">
-        <x:v>44562</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>15000</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="n">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="B3" s="1">
-        <x:v>44562</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>7500</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="n">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="B4" s="1">
-        <x:v>44562</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>13350</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="n">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="B5" s="1">
-        <x:v>44562</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="n">
-        <x:v>28000</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="n">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="B6" s="1">
-        <x:v>44562</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="n">
-        <x:v>8500</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="n">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="B7" s="1">
-        <x:v>44562</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="n">
-        <x:v>10000</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="n">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="B8" s="1">
-        <x:v>44562</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="n">
-        <x:v>5000</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="0" t="n">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="B9" s="1">
-        <x:v>44562</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="n">
-        <x:v>7500</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="0" t="n">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="B10" s="1">
-        <x:v>44562</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="n">
-        <x:v>7500</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="0" t="n">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="B11" s="1">
-        <x:v>44562</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="n">
-        <x:v>23878.4</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D66"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
+    </x:row>
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="n">
         <x:v>80</x:v>
       </x:c>
@@ -826,10 +660,19 @@
         <x:v>5002</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="n">
         <x:v>89</x:v>
       </x:c>
@@ -842,8 +685,17 @@
       <x:c r="D3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
+      <x:c r="E3" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="n">
         <x:v>91</x:v>
       </x:c>
@@ -856,8 +708,17 @@
       <x:c r="D4" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
+      <x:c r="E4" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="n">
         <x:v>92</x:v>
       </x:c>
@@ -870,8 +731,17 @@
       <x:c r="D5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
+      <x:c r="E5" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="n">
         <x:v>94</x:v>
       </x:c>
@@ -884,8 +754,17 @@
       <x:c r="D6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
+      <x:c r="E6" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="n">
         <x:v>98</x:v>
       </x:c>
@@ -898,8 +777,17 @@
       <x:c r="D7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
+      <x:c r="E7" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="n">
         <x:v>99</x:v>
       </x:c>
@@ -912,8 +800,17 @@
       <x:c r="D8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
+      <x:c r="E8" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
@@ -926,8 +823,17 @@
       <x:c r="D9" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
+      <x:c r="E9" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
@@ -940,8 +846,17 @@
       <x:c r="D10" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
+      <x:c r="E10" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
@@ -954,8 +869,17 @@
       <x:c r="D11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
+      <x:c r="E11" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
@@ -968,8 +892,17 @@
       <x:c r="D12" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
+      <x:c r="E12" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="n">
         <x:v>120</x:v>
       </x:c>
@@ -982,8 +915,17 @@
       <x:c r="D13" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
+      <x:c r="E13" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="n">
         <x:v>122</x:v>
       </x:c>
@@ -996,8 +938,17 @@
       <x:c r="D14" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
+      <x:c r="E14" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="n">
         <x:v>126</x:v>
       </x:c>
@@ -1010,8 +961,17 @@
       <x:c r="D15" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
+      <x:c r="E15" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="n">
         <x:v>130</x:v>
       </x:c>
@@ -1024,8 +984,17 @@
       <x:c r="D16" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4">
+      <x:c r="E16" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="n">
         <x:v>131</x:v>
       </x:c>
@@ -1035,8 +1004,17 @@
       <x:c r="C17" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
+      <x:c r="E17" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="n">
         <x:v>134</x:v>
       </x:c>
@@ -1049,8 +1027,17 @@
       <x:c r="D18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
+      <x:c r="E18" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="n">
         <x:v>135</x:v>
       </x:c>
@@ -1063,8 +1050,17 @@
       <x:c r="D19" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
+      <x:c r="E19" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="n">
         <x:v>141</x:v>
       </x:c>
@@ -1077,8 +1073,17 @@
       <x:c r="D20" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4">
+      <x:c r="E20" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="n">
         <x:v>146</x:v>
       </x:c>
@@ -1091,8 +1096,17 @@
       <x:c r="D21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:4">
+      <x:c r="E21" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="n">
         <x:v>149</x:v>
       </x:c>
@@ -1105,8 +1119,17 @@
       <x:c r="D22" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
+      <x:c r="E22" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="n">
         <x:v>151</x:v>
       </x:c>
@@ -1119,8 +1142,17 @@
       <x:c r="D23" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4">
+      <x:c r="E23" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="n">
         <x:v>160</x:v>
       </x:c>
@@ -1133,8 +1165,17 @@
       <x:c r="D24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:4">
+      <x:c r="E24" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="n">
         <x:v>163</x:v>
       </x:c>
@@ -1147,8 +1188,17 @@
       <x:c r="D25" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
+      <x:c r="E25" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="n">
         <x:v>165</x:v>
       </x:c>
@@ -1161,8 +1211,17 @@
       <x:c r="D26" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4">
+      <x:c r="E26" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="n">
         <x:v>167</x:v>
       </x:c>
@@ -1175,8 +1234,17 @@
       <x:c r="D27" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:4">
+      <x:c r="E27" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="n">
         <x:v>168</x:v>
       </x:c>
@@ -1189,8 +1257,17 @@
       <x:c r="D28" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4">
+      <x:c r="E28" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="n">
         <x:v>169</x:v>
       </x:c>
@@ -1203,8 +1280,17 @@
       <x:c r="D29" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4">
+      <x:c r="E29" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="n">
         <x:v>171</x:v>
       </x:c>
@@ -1217,8 +1303,17 @@
       <x:c r="D30" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:4">
+      <x:c r="E30" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="n">
         <x:v>175</x:v>
       </x:c>
@@ -1231,8 +1326,17 @@
       <x:c r="D31" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="32" spans="1:4">
+      <x:c r="E31" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="n">
         <x:v>176</x:v>
       </x:c>
@@ -1245,8 +1349,17 @@
       <x:c r="D32" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="33" spans="1:4">
+      <x:c r="E32" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="n">
         <x:v>177</x:v>
       </x:c>
@@ -1259,8 +1372,17 @@
       <x:c r="D33" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="34" spans="1:4">
+      <x:c r="E33" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="n">
         <x:v>179</x:v>
       </x:c>
@@ -1273,8 +1395,17 @@
       <x:c r="D34" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="35" spans="1:4">
+      <x:c r="E34" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="n">
         <x:v>183</x:v>
       </x:c>
@@ -1287,8 +1418,17 @@
       <x:c r="D35" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="36" spans="1:4">
+      <x:c r="E35" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="n">
         <x:v>188</x:v>
       </x:c>
@@ -1301,8 +1441,17 @@
       <x:c r="D36" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-    </x:row>
-    <x:row r="37" spans="1:4">
+      <x:c r="E36" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="n">
         <x:v>189</x:v>
       </x:c>
@@ -1312,8 +1461,17 @@
       <x:c r="C37" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-    </x:row>
-    <x:row r="38" spans="1:4">
+      <x:c r="E37" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="n">
         <x:v>193</x:v>
       </x:c>
@@ -1326,8 +1484,17 @@
       <x:c r="D38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:4">
+      <x:c r="E38" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="n">
         <x:v>196</x:v>
       </x:c>
@@ -1340,8 +1507,17 @@
       <x:c r="D39" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="40" spans="1:4">
+      <x:c r="E39" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="n">
         <x:v>199</x:v>
       </x:c>
@@ -1351,8 +1527,17 @@
       <x:c r="C40" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:4">
+      <x:c r="E40" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
@@ -1362,8 +1547,17 @@
       <x:c r="C41" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:4">
+      <x:c r="E41" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="n">
         <x:v>201</x:v>
       </x:c>
@@ -1373,8 +1567,17 @@
       <x:c r="C42" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:4">
+      <x:c r="E42" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="n">
         <x:v>202</x:v>
       </x:c>
@@ -1384,8 +1587,17 @@
       <x:c r="C43" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:4">
+      <x:c r="E43" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="n">
         <x:v>206</x:v>
       </x:c>
@@ -1398,8 +1610,17 @@
       <x:c r="D44" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:4">
+      <x:c r="E44" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="n">
         <x:v>211</x:v>
       </x:c>
@@ -1409,8 +1630,17 @@
       <x:c r="C45" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:4">
+      <x:c r="E45" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:8">
       <x:c r="A46" s="0" t="n">
         <x:v>212</x:v>
       </x:c>
@@ -1423,8 +1653,17 @@
       <x:c r="D46" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:4">
+      <x:c r="E46" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:8">
       <x:c r="A47" s="0" t="n">
         <x:v>213</x:v>
       </x:c>
@@ -1434,8 +1673,17 @@
       <x:c r="C47" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-    </x:row>
-    <x:row r="48" spans="1:4">
+      <x:c r="E47" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:8">
       <x:c r="A48" s="0" t="n">
         <x:v>214</x:v>
       </x:c>
@@ -1445,8 +1693,17 @@
       <x:c r="C48" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-    </x:row>
-    <x:row r="49" spans="1:4">
+      <x:c r="E48" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:8">
       <x:c r="A49" s="0" t="n">
         <x:v>218</x:v>
       </x:c>
@@ -1456,8 +1713,17 @@
       <x:c r="C49" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-    </x:row>
-    <x:row r="50" spans="1:4">
+      <x:c r="E49" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:8">
       <x:c r="A50" s="0" t="n">
         <x:v>219</x:v>
       </x:c>
@@ -1467,8 +1733,17 @@
       <x:c r="C50" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-    </x:row>
-    <x:row r="51" spans="1:4">
+      <x:c r="E50" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:8">
       <x:c r="A51" s="0" t="n">
         <x:v>220</x:v>
       </x:c>
@@ -1478,8 +1753,17 @@
       <x:c r="C51" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-    </x:row>
-    <x:row r="52" spans="1:4">
+      <x:c r="E51" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:8">
       <x:c r="A52" s="0" t="n">
         <x:v>221</x:v>
       </x:c>
@@ -1489,8 +1773,17 @@
       <x:c r="C52" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-    </x:row>
-    <x:row r="53" spans="1:4">
+      <x:c r="E52" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:8">
       <x:c r="A53" s="0" t="n">
         <x:v>222</x:v>
       </x:c>
@@ -1500,8 +1793,17 @@
       <x:c r="C53" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-    </x:row>
-    <x:row r="54" spans="1:4">
+      <x:c r="E53" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:8">
       <x:c r="A54" s="0" t="n">
         <x:v>224</x:v>
       </x:c>
@@ -1511,8 +1813,17 @@
       <x:c r="C54" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:4">
+      <x:c r="E54" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:8">
       <x:c r="A55" s="0" t="n">
         <x:v>225</x:v>
       </x:c>
@@ -1522,8 +1833,17 @@
       <x:c r="C55" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-    </x:row>
-    <x:row r="56" spans="1:4">
+      <x:c r="E55" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:8">
       <x:c r="A56" s="0" t="n">
         <x:v>226</x:v>
       </x:c>
@@ -1533,8 +1853,17 @@
       <x:c r="C56" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-    </x:row>
-    <x:row r="57" spans="1:4">
+      <x:c r="E56" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:8">
       <x:c r="A57" s="0" t="n">
         <x:v>227</x:v>
       </x:c>
@@ -1544,8 +1873,17 @@
       <x:c r="C57" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-    </x:row>
-    <x:row r="58" spans="1:4">
+      <x:c r="E57" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:8">
       <x:c r="A58" s="0" t="n">
         <x:v>228</x:v>
       </x:c>
@@ -1555,8 +1893,17 @@
       <x:c r="C58" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-    </x:row>
-    <x:row r="59" spans="1:4">
+      <x:c r="E58" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:8">
       <x:c r="A59" s="0" t="n">
         <x:v>229</x:v>
       </x:c>
@@ -1566,8 +1913,17 @@
       <x:c r="C59" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-    </x:row>
-    <x:row r="60" spans="1:4">
+      <x:c r="E59" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:8">
       <x:c r="A60" s="0" t="n">
         <x:v>230</x:v>
       </x:c>
@@ -1580,8 +1936,17 @@
       <x:c r="D60" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-    </x:row>
-    <x:row r="61" spans="1:4">
+      <x:c r="E60" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:8">
       <x:c r="A61" s="0" t="n">
         <x:v>231</x:v>
       </x:c>
@@ -1591,8 +1956,17 @@
       <x:c r="C61" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-    </x:row>
-    <x:row r="62" spans="1:4">
+      <x:c r="E61" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:8">
       <x:c r="A62" s="0" t="n">
         <x:v>232</x:v>
       </x:c>
@@ -1602,8 +1976,17 @@
       <x:c r="C62" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-    </x:row>
-    <x:row r="63" spans="1:4">
+      <x:c r="E62" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:8">
       <x:c r="A63" s="0" t="n">
         <x:v>233</x:v>
       </x:c>
@@ -1613,8 +1996,17 @@
       <x:c r="C63" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-    </x:row>
-    <x:row r="64" spans="1:4">
+      <x:c r="E63" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:8">
       <x:c r="A64" s="0" t="n">
         <x:v>234</x:v>
       </x:c>
@@ -1624,8 +2016,17 @@
       <x:c r="C64" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-    </x:row>
-    <x:row r="65" spans="1:4">
+      <x:c r="E64" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:8">
       <x:c r="A65" s="0" t="n">
         <x:v>235</x:v>
       </x:c>
@@ -1635,8 +2036,17 @@
       <x:c r="C65" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-    </x:row>
-    <x:row r="66" spans="1:4">
+      <x:c r="E65" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:8">
       <x:c r="A66" s="0" t="n">
         <x:v>236</x:v>
       </x:c>
@@ -1645,6 +2055,15 @@
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>82</x:v>
+      </x:c>
+      <x:c r="E66" s="1">
+        <x:v>44617</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
